--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_18_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>934380.9608652667</v>
+        <v>931679.7442138093</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673426</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -674,7 +674,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>123.7911484401894</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>114.4321989469775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>130.7806541414255</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
         <v>263.7138800015061</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897758</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>50.03828589010274</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>383.6877278154309</v>
+        <v>383.6877278154306</v>
       </c>
       <c r="G5" t="n">
         <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899766</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660376</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1149531848473</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -981,10 +981,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>95.77682125736617</v>
       </c>
       <c r="F6" t="n">
-        <v>33.11785494990909</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713863</v>
+        <v>4.360182258713877</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
         <v>193.9455960238326</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488601</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,19 +1063,19 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>74.08682427196888</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643578</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>119.1307056315184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
         <v>222.4186055422208</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2484721153922</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1136,7 +1136,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>286.5888679426061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1184,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>199.5962211436408</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>304.0065125199857</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
@@ -1421,7 +1421,7 @@
         <v>98.88510599615203</v>
       </c>
       <c r="T11" t="n">
-        <v>93.62721422945276</v>
+        <v>201.9388203544491</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.9518949665179</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>90.2535238992737</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>269.2796023743621</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793504</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187856</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560517</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819422</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740345</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>45.17596778974451</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795568</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710065</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701341</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2175,7 +2175,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.5120075176652</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503939</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>112.0357928422984</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>21.63824106824942</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695436</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>133.8107367464745</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3269,7 +3269,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819394</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>121.8000472740328</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987834567</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3500,10 +3500,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3557,7 +3557,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.905700988127</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983378</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179546</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3791,7 +3791,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3898,22 +3898,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179041</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456777</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4189,7 +4189,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282034</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.0479880037678</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>166.0479880037678</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0479880037678</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0479880037678</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>159.1024872545643</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>146.1386744811199</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
         <v>21.09711040012049</v>
@@ -4328,13 +4328,13 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917602</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052544</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515909</v>
       </c>
       <c r="M2" t="n">
         <v>495.5981834030606</v>
@@ -4358,22 +4358,22 @@
         <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709457</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709457</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>166.0479880037678</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>166.0479880037678</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.0479880037678</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>449.8779753016586</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
-        <v>449.8779753016586</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>449.8779753016586</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>449.8779753016586</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>303.3434173285435</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
@@ -4413,46 +4413,46 @@
         <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>1054.855520006025</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>819.7034117742819</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>565.4660550460803</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>565.4660550460803</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.8779753016586</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.2115014322552</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>183.2115014322552</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>183.2115014322552</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>183.2115014322552</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>36.32155393434483</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434483</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
         <v>918.4699372075542</v>
@@ -4513,25 +4513,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>715.9668145666111</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>449.5891579994332</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>449.5891579994332</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>183.2115014322552</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>183.2115014322552</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>183.2115014322552</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>794.4188945618812</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="C5" t="n">
-        <v>794.4188945618812</v>
+        <v>816.5910675842874</v>
       </c>
       <c r="D5" t="n">
-        <v>794.4188945618812</v>
+        <v>816.5910675842874</v>
       </c>
       <c r="E5" t="n">
-        <v>743.8751714405653</v>
+        <v>430.8028149860431</v>
       </c>
       <c r="F5" t="n">
-        <v>356.3118100108371</v>
+        <v>43.23945355631518</v>
       </c>
       <c r="G5" t="n">
-        <v>343.7673746797563</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="H5" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275141</v>
+        <v>93.7664115927513</v>
       </c>
       <c r="K5" t="n">
-        <v>239.0325989245559</v>
+        <v>239.0325989245558</v>
       </c>
       <c r="L5" t="n">
-        <v>456.149911482563</v>
+        <v>456.1499114825624</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748856</v>
+        <v>729.4041931748848</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202379</v>
+        <v>1011.693823202378</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798413</v>
+        <v>1264.916654798412</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189409</v>
+        <v>1446.535482189408</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261724</v>
+        <v>1389.99667351825</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261724</v>
+        <v>1389.99667351825</v>
       </c>
       <c r="U5" t="n">
-        <v>1534.750911261724</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="V5" t="n">
-        <v>1534.750911261724</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="W5" t="n">
-        <v>1181.982255991609</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="X5" t="n">
-        <v>1181.982255991609</v>
+        <v>1136.345205654768</v>
       </c>
       <c r="Y5" t="n">
-        <v>794.4188945618812</v>
+        <v>1136.345205654768</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>201.3196966998298</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="C6" t="n">
-        <v>201.3196966998298</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="D6" t="n">
-        <v>201.3196966998298</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="E6" t="n">
-        <v>201.3196966998298</v>
+        <v>167.8673179625478</v>
       </c>
       <c r="F6" t="n">
         <v>167.8673179625478</v>
       </c>
       <c r="G6" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="H6" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J6" t="n">
-        <v>49.44206107563419</v>
+        <v>49.44206107563413</v>
       </c>
       <c r="K6" t="n">
-        <v>388.9600665101425</v>
+        <v>159.6385680169444</v>
       </c>
       <c r="L6" t="n">
-        <v>583.4554103414944</v>
+        <v>354.1339118482963</v>
       </c>
       <c r="M6" t="n">
-        <v>829.7791710122401</v>
+        <v>600.457672519042</v>
       </c>
       <c r="N6" t="n">
-        <v>1097.031033584462</v>
+        <v>889.0545187259708</v>
       </c>
       <c r="O6" t="n">
-        <v>1319.294480749981</v>
+        <v>1111.317965891489</v>
       </c>
       <c r="P6" t="n">
-        <v>1478.347425948669</v>
+        <v>1270.370911090177</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261724</v>
+        <v>1534.750911261722</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757972</v>
+        <v>1530.346686757971</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757972</v>
+        <v>1385.878273152066</v>
       </c>
       <c r="T6" t="n">
-        <v>1334.442044309656</v>
+        <v>1189.97363070375</v>
       </c>
       <c r="U6" t="n">
-        <v>1106.320960630261</v>
+        <v>961.8525470243544</v>
       </c>
       <c r="V6" t="n">
-        <v>871.1688523985181</v>
+        <v>726.7004387926117</v>
       </c>
       <c r="W6" t="n">
-        <v>616.9314956703165</v>
+        <v>472.4630820644101</v>
       </c>
       <c r="X6" t="n">
-        <v>409.0799954647837</v>
+        <v>264.6115818588773</v>
       </c>
       <c r="Y6" t="n">
-        <v>201.3196966998298</v>
+        <v>264.6115818588773</v>
       </c>
     </row>
     <row r="7">
@@ -4699,49 +4699,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>372.07181055764</v>
+        <v>236.9104562721272</v>
       </c>
       <c r="C7" t="n">
-        <v>372.07181055764</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>372.07181055764</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>372.07181055764</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>225.1818630597296</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274378</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274378</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709667</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523447</v>
+        <v>30.69501822523445</v>
       </c>
       <c r="K7" t="n">
-        <v>157.4322756223267</v>
+        <v>157.4322756223266</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830389</v>
+        <v>375.1387655830388</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388152</v>
+        <v>615.0688576388151</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974824</v>
+        <v>854.7285647974822</v>
       </c>
       <c r="O7" t="n">
         <v>1060.076798891672</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934022</v>
+        <v>1212.267005934021</v>
       </c>
       <c r="Q7" t="n">
         <v>1234.200536495184</v>
@@ -4750,25 +4750,25 @@
         <v>1113.866490402741</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402741</v>
+        <v>910.35784443713</v>
       </c>
       <c r="T7" t="n">
-        <v>889.2012322792858</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="U7" t="n">
-        <v>600.0613614556573</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="V7" t="n">
-        <v>600.0613614556573</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="W7" t="n">
-        <v>600.0613614556573</v>
+        <v>685.6925863136746</v>
       </c>
       <c r="X7" t="n">
-        <v>372.07181055764</v>
+        <v>457.7030354156573</v>
       </c>
       <c r="Y7" t="n">
-        <v>372.07181055764</v>
+        <v>236.9104562721272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>69.85663355251364</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>69.85663355251364</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362819</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4863,43 +4863,43 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380223</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694941</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>514.9860105762135</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1434.833775484961</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1145.416605448001</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>917.4270545499834</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>696.6344754064532</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1947.664647156212</v>
+        <v>1485.490329133577</v>
       </c>
       <c r="C11" t="n">
-        <v>1578.7021302158</v>
+        <v>1116.527812193165</v>
       </c>
       <c r="D11" t="n">
-        <v>1220.43643160905</v>
+        <v>1116.527812193165</v>
       </c>
       <c r="E11" t="n">
-        <v>1220.43643160905</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="F11" t="n">
-        <v>809.4505268194424</v>
+        <v>809.4505268194422</v>
       </c>
       <c r="G11" t="n">
-        <v>394.8347622605876</v>
+        <v>394.8347622605877</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309162</v>
@@ -5039,52 +5039,52 @@
         <v>77.53766591592081</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706895</v>
+        <v>304.4060796706885</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656972</v>
+        <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625331</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087833</v>
+        <v>1828.956123087832</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484045</v>
+        <v>2455.600890484044</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535299</v>
+        <v>3033.988513535298</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479998</v>
+        <v>3493.127967479999</v>
       </c>
       <c r="Q11" t="n">
         <v>3789.749829464065</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.88329579604</v>
+        <v>3876.883295796041</v>
       </c>
       <c r="S11" t="n">
         <v>3776.999350345382</v>
       </c>
       <c r="T11" t="n">
-        <v>3682.426406679268</v>
+        <v>3573.020743926746</v>
       </c>
       <c r="U11" t="n">
-        <v>3428.932464800796</v>
+        <v>3319.526802048275</v>
       </c>
       <c r="V11" t="n">
-        <v>3097.869577457225</v>
+        <v>2988.463914704704</v>
       </c>
       <c r="W11" t="n">
-        <v>3097.869577457225</v>
+        <v>2635.69525943459</v>
       </c>
       <c r="X11" t="n">
-        <v>2724.403819196145</v>
+        <v>2262.22950117351</v>
       </c>
       <c r="Y11" t="n">
-        <v>2334.264487220334</v>
+        <v>1872.090169197699</v>
       </c>
     </row>
     <row r="12">
@@ -5130,16 +5130,16 @@
         <v>1397.430603019147</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720358</v>
+        <v>1532.266717861144</v>
       </c>
       <c r="O12" t="n">
-        <v>2401.180957052881</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2401.180957052881</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>926.9545584938322</v>
+        <v>394.3869424262209</v>
       </c>
       <c r="C13" t="n">
-        <v>758.0183755659253</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>607.9017361535896</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>459.9886425711965</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="F13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="G13" t="n">
-        <v>313.0986950732861</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="H13" t="n">
-        <v>168.7028415717529</v>
+        <v>77.53766591592081</v>
       </c>
       <c r="I13" t="n">
         <v>77.53766591592081</v>
@@ -5212,16 +5212,16 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818665</v>
+        <v>1786.049800818666</v>
       </c>
       <c r="P13" t="n">
         <v>2042.940349010724</v>
       </c>
       <c r="Q13" t="n">
-        <v>2137.362968742809</v>
+        <v>2137.36296874281</v>
       </c>
       <c r="R13" t="n">
-        <v>2056.743466925584</v>
+        <v>2056.743466925585</v>
       </c>
       <c r="S13" t="n">
         <v>1868.627619458881</v>
@@ -5230,19 +5230,19 @@
         <v>1647.736286893321</v>
       </c>
       <c r="U13" t="n">
-        <v>1647.736286893321</v>
+        <v>1358.644593842773</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.736286893321</v>
+        <v>1103.960105636886</v>
       </c>
       <c r="W13" t="n">
-        <v>1375.73668853538</v>
+        <v>814.5429355999249</v>
       </c>
       <c r="X13" t="n">
-        <v>1147.747137637362</v>
+        <v>796.8279863999907</v>
       </c>
       <c r="Y13" t="n">
-        <v>926.9545584938322</v>
+        <v>576.0354072564605</v>
       </c>
     </row>
     <row r="14">
@@ -5252,19 +5252,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5279,25 +5279,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5321,7 +5321,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>95.584050252739</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>429.5088224239595</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589157</v>
+        <v>1026.887310050511</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143764</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797186</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832662</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2379.917379832662</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>2090.84215317686</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.157664970973</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237301</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093771</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5489,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,19 +5510,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
@@ -5534,7 +5534,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,13 +5647,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
         <v>240.7066105458822</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797742</v>
@@ -5683,40 +5683,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138376</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
         <v>1948.813509611463</v>
@@ -5750,28 +5750,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
@@ -5786,16 +5786,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5829,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K21" t="n">
-        <v>352.5519571452614</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452614</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.67509321183</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400683</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797186</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782952</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038336</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X22" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138381</v>
       </c>
       <c r="Y22" t="n">
-        <v>990.5373202159261</v>
+        <v>695.502065570308</v>
       </c>
     </row>
     <row r="23">
@@ -5981,19 +5981,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
@@ -6014,25 +6014,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438176</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C25" t="n">
-        <v>580.899304487669</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>430.7826650753333</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>317.6151975578602</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797744</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,19 +6303,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278209</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>408.9258559154852</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6382,13 +6382,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782953</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038339</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6400,34 +6400,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6455,13 +6455,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,7 +6482,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>984.5467179762942</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>815.6105350483873</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>665.4938956360515</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>517.5808020536584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>370.690854555748</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6637,34 +6637,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q31" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6680,13 +6680,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6838,19 +6838,19 @@
         <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121641</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121641</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121641</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6859,10 +6859,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6880,7 +6880,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
         <v>2197.062545487567</v>
@@ -6911,10 +6911,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6962,25 +6962,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745237</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400693</v>
+        <v>580.8993044876694</v>
       </c>
       <c r="C37" t="n">
-        <v>390.823249958218</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D37" t="n">
-        <v>240.7066105458822</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782954</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
         <v>1665.560112570817</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614392</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703111</v>
+        <v>762.5477693179091</v>
       </c>
     </row>
     <row r="38">
@@ -7163,46 +7163,46 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075796</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466573</v>
@@ -7239,40 +7239,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>738.7889117913852</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>738.7889117913852</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998282</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
         <v>826.1405381797742</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166296</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189237</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="41">
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1802.364528928006</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2354.274259167293</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188007</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511393</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490404</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7628,7 +7628,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
         <v>1204.759558406469</v>
@@ -7643,25 +7643,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.6725264685176</v>
+        <v>513.8536007400711</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406107</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282751</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458821</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
         <v>93.81666304797187</v>
@@ -7807,10 +7807,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583152</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377265</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442287</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987573</v>
+        <v>695.5020655703108</v>
       </c>
     </row>
   </sheetData>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438637014</v>
+        <v>34.43939438637017</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>231.6378772658565</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.5605895300065</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878346</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,13 +8544,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111055</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>20.93778120154988</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>77.9238575522761</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>108.3116061249964</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>90.2535238992737</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>17.24339596222893</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811021</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459334</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.5336875992926</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856748</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253795</v>
       </c>
     </row>
     <row r="20">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>65.31997266427214</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844823395</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>43.26526345295032</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>34.39816980427076</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>145.6085800303784</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,7 +24613,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>31.71340154579431</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24883,10 +24883,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25312,19 +25312,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>45.446773824595</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303778</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,10 +25561,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393105</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,22 +25786,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823108</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.22910392194265</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295009</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610407</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>890086.0844994979</v>
+        <v>890086.0844994978</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982291</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982291</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>979554.9109982293</v>
+        <v>979554.9109982292</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982293</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>979554.9109982291</v>
+        <v>979554.9109982293</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>979554.9109982292</v>
+        <v>979554.9109982291</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>451572.9734253558</v>
+      </c>
+      <c r="C2" t="n">
         <v>451572.9734253557</v>
-      </c>
-      <c r="C2" t="n">
-        <v>451572.9734253559</v>
       </c>
       <c r="D2" t="n">
         <v>451572.9734253558</v>
@@ -26323,16 +26323,16 @@
         <v>402924.084350918</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295031</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295031</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="J2" t="n">
         <v>443930.6298295034</v>
@@ -26341,7 +26341,7 @@
         <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295035</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295033</v>
@@ -26350,7 +26350,7 @@
         <v>443930.6298295032</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295034</v>
+        <v>443930.6298295033</v>
       </c>
       <c r="P2" t="n">
         <v>443930.6298295032</v>
@@ -26366,43 +26366,43 @@
         <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657068</v>
+        <v>132804.2190657067</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.072392938</v>
+        <v>265413.0723929382</v>
       </c>
       <c r="E3" t="n">
         <v>313577.1573545783</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704277</v>
+        <v>189308.2687704276</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.42926417413</v>
+        <v>30877.42926417411</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049575</v>
+        <v>65018.34502049578</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.403712731</v>
+        <v>81897.40371273106</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202338</v>
+        <v>49839.57413202325</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>5.070647497287328e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>252122.0652631775</v>
       </c>
       <c r="C4" t="n">
-        <v>216477.7990382059</v>
+        <v>216477.799038206</v>
       </c>
       <c r="D4" t="n">
         <v>141542.8205525801</v>
@@ -26427,37 +26427,37 @@
         <v>11671.55765715928</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
+        <v>11776.97621680582</v>
+      </c>
+      <c r="H4" t="n">
         <v>11776.97621680583</v>
       </c>
-      <c r="H4" t="n">
-        <v>11776.97621680582</v>
-      </c>
       <c r="I4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680586</v>
       </c>
       <c r="J4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="K4" t="n">
-        <v>11776.97621680586</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="M4" t="n">
-        <v>11776.97621680583</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="N4" t="n">
+        <v>11776.97621680591</v>
+      </c>
+      <c r="O4" t="n">
         <v>11776.97621680582</v>
       </c>
-      <c r="O4" t="n">
-        <v>11776.9762168058</v>
-      </c>
       <c r="P4" t="n">
-        <v>11776.97621680584</v>
+        <v>11776.97621680582</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>72593.65038667491</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738574</v>
+        <v>85137.48506738576</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-543684.8756332811</v>
+        <v>-543684.875633281</v>
       </c>
       <c r="C6" t="n">
-        <v>29697.30493476824</v>
+        <v>29697.30493476809</v>
       </c>
       <c r="D6" t="n">
-        <v>-48320.69196000695</v>
+        <v>-48320.69196000717</v>
       </c>
       <c r="E6" t="n">
-        <v>-7462.115728205274</v>
+        <v>-7683.247042180064</v>
       </c>
       <c r="F6" t="n">
-        <v>141722.8550183628</v>
+        <v>141688.117092927</v>
       </c>
       <c r="G6" t="n">
-        <v>331031.1237887904</v>
+        <v>330996.3858633545</v>
       </c>
       <c r="H6" t="n">
-        <v>331031.1237887905</v>
+        <v>330996.3858633545</v>
       </c>
       <c r="I6" t="n">
-        <v>331031.1237887904</v>
+        <v>330996.3858633544</v>
       </c>
       <c r="J6" t="n">
-        <v>262031.9693696764</v>
+        <v>261997.2314442407</v>
       </c>
       <c r="K6" t="n">
-        <v>300153.6945246162</v>
+        <v>300118.9565991806</v>
       </c>
       <c r="L6" t="n">
-        <v>266012.7787682947</v>
+        <v>265978.0408428591</v>
       </c>
       <c r="M6" t="n">
-        <v>249133.7200760594</v>
+        <v>249098.9821506236</v>
       </c>
       <c r="N6" t="n">
-        <v>281191.5496567669</v>
+        <v>281156.8117313312</v>
       </c>
       <c r="O6" t="n">
-        <v>331031.1237887904</v>
+        <v>330996.3858633546</v>
       </c>
       <c r="P6" t="n">
-        <v>331031.1237887903</v>
+        <v>330996.3858633546</v>
       </c>
     </row>
   </sheetData>
@@ -26710,7 +26710,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.482815996219201e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26719,7 +26719,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26738,7 +26738,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695746</v>
+        <v>717.3319511695745</v>
       </c>
       <c r="D3" t="n">
         <v>934.0648921175393</v>
@@ -26790,13 +26790,13 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154309</v>
+        <v>383.6877278154306</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490101</v>
+        <v>969.2208239490102</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,10 +26960,10 @@
         <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000964</v>
+        <v>103.2769374000963</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479647</v>
+        <v>216.7329409479648</v>
       </c>
       <c r="E3" t="n">
         <v>268.176345097412</v>
@@ -26972,13 +26972,13 @@
         <v>165.7342631267222</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27012,16 +27012,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.9738478139248</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846078</v>
+        <v>256.8971042846082</v>
       </c>
       <c r="E4" t="n">
         <v>328.6359918489713</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506381</v>
+        <v>203.4874641506379</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139246</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846081</v>
+        <v>256.8971042846082</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489711</v>
+        <v>328.6359918489713</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506383</v>
+        <v>203.4874641506375</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27258,16 +27258,16 @@
         <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.9738478139248</v>
+        <v>119.9738478139245</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846078</v>
+        <v>256.8971042846082</v>
       </c>
       <c r="M4" t="n">
         <v>328.6359918489713</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506381</v>
+        <v>203.4874641506379</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,7 +27385,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27394,7 +27394,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>190.4024841890786</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527768</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27512,19 +27512,19 @@
         <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>91.25049683032684</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>152.3821593358568</v>
@@ -27558,7 +27558,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>92.43369173814037</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>22.54475050117135</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508123175</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>331.892084182159</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.18831792628055</v>
+        <v>23.18831792628083</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863695</v>
+        <v>99.30025118863696</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660376</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1149531848473</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840622697</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27701,10 +27701,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>61.86825919803478</v>
       </c>
       <c r="F6" t="n">
-        <v>111.9513574434748</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27743,7 +27743,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698459</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374183</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,10 +27783,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>92.61060566634802</v>
+        <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
         <v>150.7263422083602</v>
@@ -27795,7 +27795,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643593</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059547</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27856,7 +27856,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>68.09417367807686</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,19 +27904,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>52.5414221801872</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1.941486971190898e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-4.156160098285427e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28561,19 +28561,19 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>9.003997547551989e-13</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28740,7 +28740,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>-2.899014361901209e-12</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.041087216435699e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -28992,7 +28992,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-2.546585164964199e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.426059932593489e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29989,7 +29989,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-7.032208304403594e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -30220,10 +30220,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30232,13 +30232,13 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1.597333376679444e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>7.34111622066315e-14</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365122</v>
+        <v>2.883746537365121</v>
       </c>
       <c r="H5" t="n">
         <v>29.53316922579056</v>
       </c>
       <c r="I5" t="n">
-        <v>111.175638381769</v>
+        <v>111.1756383817689</v>
       </c>
       <c r="J5" t="n">
         <v>244.7543826756932</v>
@@ -31291,19 +31291,19 @@
         <v>366.8233736023589</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952469</v>
+        <v>455.0768316952468</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791138</v>
+        <v>506.3606591791137</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284025</v>
+        <v>514.5541040284024</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974781</v>
+        <v>485.878849397478</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562766</v>
+        <v>414.6863567562765</v>
       </c>
       <c r="Q5" t="n">
         <v>311.412183886888</v>
@@ -31312,10 +31312,10 @@
         <v>181.146143427762</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020778</v>
+        <v>65.71337422020777</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731583</v>
+        <v>12.62360046731582</v>
       </c>
       <c r="U5" t="n">
         <v>0.2306997229892097</v>
@@ -31364,37 +31364,37 @@
         <v>53.12316808189775</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862624</v>
+        <v>145.7740335862623</v>
       </c>
       <c r="K6" t="n">
         <v>249.1510419453795</v>
       </c>
       <c r="L6" t="n">
-        <v>335.014323043866</v>
+        <v>335.0143230438659</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874181</v>
+        <v>390.945913387418</v>
       </c>
       <c r="N6" t="n">
-        <v>401.2930884189114</v>
+        <v>401.2930884189113</v>
       </c>
       <c r="O6" t="n">
         <v>367.1047769348671</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190655</v>
+        <v>294.6339480190654</v>
       </c>
       <c r="Q6" t="n">
         <v>196.9549915739557</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392927</v>
+        <v>95.79765189392926</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399195</v>
+        <v>28.65944163399194</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989046</v>
+        <v>6.219132670989045</v>
       </c>
       <c r="U6" t="n">
         <v>0.101509238373053</v>
@@ -31437,19 +31437,19 @@
         <v>1.293549420141856</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907942</v>
+        <v>11.50083029907941</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572055</v>
+        <v>38.90055892572054</v>
       </c>
       <c r="J7" t="n">
-        <v>91.4539440040292</v>
+        <v>91.45394400402918</v>
       </c>
       <c r="K7" t="n">
         <v>150.2869235401174</v>
       </c>
       <c r="L7" t="n">
-        <v>192.3155201545447</v>
+        <v>192.3155201545446</v>
       </c>
       <c r="M7" t="n">
         <v>202.7697513773274</v>
@@ -31464,16 +31464,16 @@
         <v>156.4489225960658</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266058</v>
+        <v>108.3171246266057</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565106</v>
+        <v>58.16268574565105</v>
       </c>
       <c r="S7" t="n">
         <v>22.5430385310176</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060655</v>
+        <v>5.526983886060654</v>
       </c>
       <c r="U7" t="n">
         <v>0.07055724109864675</v>
@@ -31850,19 +31850,19 @@
         <v>655.2214742821484</v>
       </c>
       <c r="N12" t="n">
-        <v>672.563237034051</v>
+        <v>267.5398078833302</v>
       </c>
       <c r="O12" t="n">
         <v>615.2639659924478</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>493.8035753383448</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.7767623746013</v>
+        <v>330.0946129047542</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605175</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627656</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>650.5350891770663</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565771</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742437</v>
@@ -32224,37 +32224,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32263,10 +32263,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,40 +32309,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32388,28 +32388,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32418,7 +32418,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32461,37 +32461,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32500,10 +32500,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,37 +32549,37 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
-        <v>248.0319961154043</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888817</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32625,28 +32625,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32655,7 +32655,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -33023,22 +33023,22 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33260,28 +33260,28 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
@@ -33500,13 +33500,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33515,13 +33515,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33664,7 +33664,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33758,7 +33758,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33971,16 +33971,16 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,25 +34214,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>334.7693860946154</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>463.9598929192557</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34781,7 +34781,7 @@
         <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>245.5483596572286</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900694</v>
+        <v>63.70847814900691</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573784</v>
+        <v>146.7335225573783</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252596</v>
+        <v>219.3104167252595</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518411</v>
+        <v>276.014425951841</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318116</v>
+        <v>285.1410404318115</v>
       </c>
       <c r="O5" t="n">
         <v>255.7806379757913</v>
@@ -34954,7 +34954,7 @@
         <v>183.453361001007</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243856</v>
+        <v>89.1064940124385</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>18.93640691959567</v>
+        <v>18.93640691959564</v>
       </c>
       <c r="K6" t="n">
-        <v>342.9474802368771</v>
+        <v>111.3096029710205</v>
       </c>
       <c r="L6" t="n">
         <v>196.4599432639918</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794653998</v>
+        <v>248.8118794653997</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355781</v>
+        <v>291.5119658655846</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904227</v>
+        <v>224.5085324904226</v>
       </c>
       <c r="P6" t="n">
         <v>160.6595406047352</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.97321748793416</v>
+        <v>267.0505052237833</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35112,7 +35112,7 @@
         <v>153.7274818609593</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491138</v>
+        <v>22.15508137491136</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313194</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
         <v>297.6803606378502</v>
@@ -35264,13 +35264,13 @@
         <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961231</v>
+        <v>474.3640795072286</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35498,19 +35498,19 @@
         <v>513.0874403601301</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507177</v>
+        <v>136.1980957999969</v>
       </c>
       <c r="O12" t="n">
         <v>472.6677215480033</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>359.8291679240146</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.7949882885798</v>
+        <v>190.1128388187327</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655356</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>519.193377093733</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121327</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,31 +35878,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36048,19 +36048,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899044</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,31 +36115,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>110.1905571410453</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028601763</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36285,19 +36285,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899048</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36531,7 +36531,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36671,22 +36671,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>37.00975247789211</v>
@@ -37148,13 +37148,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37163,13 +37163,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37406,7 +37406,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>200.7949786802852</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>332.6181808359224</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
